--- a/Daisy-xls/ResearchPages/Spanish/research-cervical-cancer - Spanish.xlsx
+++ b/Daisy-xls/ResearchPages/Spanish/research-cervical-cancer - Spanish.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16605" windowHeight="9435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>URL</t>
   </si>
@@ -48,19 +48,22 @@
     <t>Instantánea del cáncer de cuello uterino</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/cancer/instantaneas/cuello-uterino</t>
-  </si>
-  <si>
     <t>Estudio de los NIH revela que un resultado negativo de la prueba del VPH es un mejor predictor de un riesgo bajo de cáncer de cuello uterino que una prueba de Pap negativa</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/noticias/predictor-riesgo-de-vph</t>
-  </si>
-  <si>
     <t>NCI en el congreso de ASCO: Breve reseña de los resultados de investigaciones sobre cánceres en mujeres</t>
   </si>
   <si>
-    <t>http://www.cancer.gov/espanol/noticias/Asco-estudios-del-NCI-canceres-en-mujeres</t>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/cancer/instantaneas/cuello-uterino</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/predictor-riesgo-de-vph</t>
+  </si>
+  <si>
+    <t>www.cancer.gov/espanol/noticias/Asco-estudios-del-NCI-canceres-en-mujeres</t>
   </si>
 </sst>
 </file>
@@ -101,21 +104,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -138,57 +135,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -492,92 +489,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="44.77734375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="3"/>
+    <col min="1" max="1" width="6.140625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="8" t="s">
+    <row r="2" spans="1:8" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15">
+        <v>725753</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="8">
+        <v>41948</v>
+      </c>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="15">
+        <v>805030</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="5">
-        <v>41948</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11">
+        <v>41838</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
+    <row r="4" spans="1:8" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="B4" s="15">
+        <v>777243</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="11">
-        <v>41838</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="11">
         <v>41792</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E11">
-    <sortCondition descending="1" ref="E1"/>
+  <sortState ref="B2:G11">
+    <sortCondition descending="1" ref="G1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -590,7 +611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -602,7 +623,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
